--- a/betfair-conversion/excel/TENNIS/WTA/2022.xlsx
+++ b/betfair-conversion/excel/TENNIS/WTA/2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Internet\tennis-data\2022w\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632C2406-B7E2-45C8-9C70-C35D8D7D791B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA1BF5A-91DD-4E46-ADA2-E07300EAB377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0EBE7DC0-79EA-45F7-BAB2-854AFB3DEAD4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4424" uniqueCount="233">
   <si>
     <t>Completed</t>
   </si>
@@ -683,6 +683,57 @@
   <si>
     <t>Zarazua R.</t>
   </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Lyon Open</t>
+  </si>
+  <si>
+    <t>Miyazaki Y.</t>
+  </si>
+  <si>
+    <t>Jacquemot E.</t>
+  </si>
+  <si>
+    <t>Boulter K.</t>
+  </si>
+  <si>
+    <t>Bolkvadze M.</t>
+  </si>
+  <si>
+    <t>Cocciaretto E.</t>
+  </si>
+  <si>
+    <t>Bogdan A.</t>
+  </si>
+  <si>
+    <t>Korpatsch T.</t>
+  </si>
+  <si>
+    <t>Diatchenko V.</t>
+  </si>
+  <si>
+    <t>Friedsam A.L.</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Monterrey Open</t>
+  </si>
+  <si>
+    <t>Zacarias M.</t>
+  </si>
+  <si>
+    <t>Navarro E.</t>
+  </si>
+  <si>
+    <t>Galfi D.</t>
+  </si>
+  <si>
+    <t>Errani S.</t>
+  </si>
 </sst>
 </file>
 
@@ -1048,13 +1099,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91986CD1-07AF-4456-8B0E-BBE15931E2B6}">
-  <dimension ref="A1:AF427"/>
+  <dimension ref="A1:AF489"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D393" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D455" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A427" sqref="A427"/>
+      <selection pane="bottomRight" activeCell="A489" sqref="A489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -41018,6 +41069,5860 @@
         <v>1.8</v>
       </c>
     </row>
+    <row r="428" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>11</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D428" s="1">
+        <v>44620</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H428" t="s">
+        <v>28</v>
+      </c>
+      <c r="I428">
+        <v>3</v>
+      </c>
+      <c r="J428" t="s">
+        <v>24</v>
+      </c>
+      <c r="K428" t="s">
+        <v>177</v>
+      </c>
+      <c r="L428">
+        <v>48</v>
+      </c>
+      <c r="M428">
+        <v>114</v>
+      </c>
+      <c r="N428">
+        <v>1124</v>
+      </c>
+      <c r="O428">
+        <v>585</v>
+      </c>
+      <c r="P428">
+        <v>4</v>
+      </c>
+      <c r="Q428">
+        <v>6</v>
+      </c>
+      <c r="R428">
+        <v>7</v>
+      </c>
+      <c r="S428">
+        <v>5</v>
+      </c>
+      <c r="T428">
+        <v>6</v>
+      </c>
+      <c r="U428">
+        <v>3</v>
+      </c>
+      <c r="V428">
+        <v>2</v>
+      </c>
+      <c r="W428">
+        <v>1</v>
+      </c>
+      <c r="X428" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y428">
+        <v>1.2</v>
+      </c>
+      <c r="Z428">
+        <v>4.5</v>
+      </c>
+      <c r="AA428">
+        <v>1.23</v>
+      </c>
+      <c r="AB428">
+        <v>4.59</v>
+      </c>
+      <c r="AC428">
+        <v>1.28</v>
+      </c>
+      <c r="AD428">
+        <v>4.59</v>
+      </c>
+      <c r="AE428">
+        <v>1.22</v>
+      </c>
+      <c r="AF428">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="429" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>11</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D429" s="1">
+        <v>44620</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H429" t="s">
+        <v>28</v>
+      </c>
+      <c r="I429">
+        <v>3</v>
+      </c>
+      <c r="J429" t="s">
+        <v>38</v>
+      </c>
+      <c r="K429" t="s">
+        <v>99</v>
+      </c>
+      <c r="L429">
+        <v>71</v>
+      </c>
+      <c r="M429">
+        <v>76</v>
+      </c>
+      <c r="N429">
+        <v>902</v>
+      </c>
+      <c r="O429">
+        <v>861</v>
+      </c>
+      <c r="P429">
+        <v>7</v>
+      </c>
+      <c r="Q429">
+        <v>6</v>
+      </c>
+      <c r="R429">
+        <v>7</v>
+      </c>
+      <c r="S429">
+        <v>6</v>
+      </c>
+      <c r="V429">
+        <v>2</v>
+      </c>
+      <c r="W429">
+        <v>0</v>
+      </c>
+      <c r="X429" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y429">
+        <v>1.4</v>
+      </c>
+      <c r="Z429">
+        <v>3</v>
+      </c>
+      <c r="AA429">
+        <v>1.44</v>
+      </c>
+      <c r="AB429">
+        <v>2.99</v>
+      </c>
+      <c r="AC429">
+        <v>1.44</v>
+      </c>
+      <c r="AD429">
+        <v>3.13</v>
+      </c>
+      <c r="AE429">
+        <v>1.4</v>
+      </c>
+      <c r="AF429">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="430" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>11</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D430" s="1">
+        <v>44620</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H430" t="s">
+        <v>28</v>
+      </c>
+      <c r="I430">
+        <v>3</v>
+      </c>
+      <c r="J430" t="s">
+        <v>176</v>
+      </c>
+      <c r="K430" t="s">
+        <v>77</v>
+      </c>
+      <c r="L430">
+        <v>139</v>
+      </c>
+      <c r="M430">
+        <v>37</v>
+      </c>
+      <c r="N430">
+        <v>466</v>
+      </c>
+      <c r="O430">
+        <v>1360</v>
+      </c>
+      <c r="P430">
+        <v>1</v>
+      </c>
+      <c r="Q430">
+        <v>6</v>
+      </c>
+      <c r="R430">
+        <v>6</v>
+      </c>
+      <c r="S430">
+        <v>4</v>
+      </c>
+      <c r="T430">
+        <v>6</v>
+      </c>
+      <c r="U430">
+        <v>1</v>
+      </c>
+      <c r="V430">
+        <v>2</v>
+      </c>
+      <c r="W430">
+        <v>1</v>
+      </c>
+      <c r="X430" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y430">
+        <v>3.75</v>
+      </c>
+      <c r="Z430">
+        <v>1.28</v>
+      </c>
+      <c r="AA430">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AB430">
+        <v>1.26</v>
+      </c>
+      <c r="AC430">
+        <v>4.5</v>
+      </c>
+      <c r="AD430">
+        <v>1.31</v>
+      </c>
+      <c r="AE430">
+        <v>3.71</v>
+      </c>
+      <c r="AF430">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="431" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>11</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D431" s="1">
+        <v>44620</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H431" t="s">
+        <v>28</v>
+      </c>
+      <c r="I431">
+        <v>3</v>
+      </c>
+      <c r="J431" t="s">
+        <v>58</v>
+      </c>
+      <c r="K431" t="s">
+        <v>218</v>
+      </c>
+      <c r="L431">
+        <v>79</v>
+      </c>
+      <c r="M431">
+        <v>206</v>
+      </c>
+      <c r="N431">
+        <v>830</v>
+      </c>
+      <c r="O431">
+        <v>319</v>
+      </c>
+      <c r="P431">
+        <v>6</v>
+      </c>
+      <c r="Q431">
+        <v>7</v>
+      </c>
+      <c r="R431">
+        <v>6</v>
+      </c>
+      <c r="S431">
+        <v>3</v>
+      </c>
+      <c r="T431">
+        <v>7</v>
+      </c>
+      <c r="U431">
+        <v>5</v>
+      </c>
+      <c r="V431">
+        <v>2</v>
+      </c>
+      <c r="W431">
+        <v>1</v>
+      </c>
+      <c r="X431" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y431">
+        <v>1.53</v>
+      </c>
+      <c r="Z431">
+        <v>2.5</v>
+      </c>
+      <c r="AA431">
+        <v>1.46</v>
+      </c>
+      <c r="AB431">
+        <v>2.85</v>
+      </c>
+      <c r="AC431">
+        <v>1.55</v>
+      </c>
+      <c r="AD431">
+        <v>2.87</v>
+      </c>
+      <c r="AE431">
+        <v>1.47</v>
+      </c>
+      <c r="AF431">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="432" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>11</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D432" s="1">
+        <v>44620</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H432" t="s">
+        <v>28</v>
+      </c>
+      <c r="I432">
+        <v>3</v>
+      </c>
+      <c r="J432" t="s">
+        <v>187</v>
+      </c>
+      <c r="K432" t="s">
+        <v>219</v>
+      </c>
+      <c r="L432">
+        <v>144</v>
+      </c>
+      <c r="M432">
+        <v>239</v>
+      </c>
+      <c r="N432">
+        <v>442</v>
+      </c>
+      <c r="O432">
+        <v>279</v>
+      </c>
+      <c r="P432">
+        <v>4</v>
+      </c>
+      <c r="Q432">
+        <v>6</v>
+      </c>
+      <c r="R432">
+        <v>6</v>
+      </c>
+      <c r="S432">
+        <v>2</v>
+      </c>
+      <c r="T432">
+        <v>6</v>
+      </c>
+      <c r="U432">
+        <v>3</v>
+      </c>
+      <c r="V432">
+        <v>2</v>
+      </c>
+      <c r="W432">
+        <v>1</v>
+      </c>
+      <c r="X432" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y432">
+        <v>1.53</v>
+      </c>
+      <c r="Z432">
+        <v>2.5</v>
+      </c>
+      <c r="AA432">
+        <v>1.56</v>
+      </c>
+      <c r="AB432">
+        <v>2.58</v>
+      </c>
+      <c r="AC432">
+        <v>1.57</v>
+      </c>
+      <c r="AD432">
+        <v>2.75</v>
+      </c>
+      <c r="AE432">
+        <v>1.53</v>
+      </c>
+      <c r="AF432">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="433" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>11</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D433" s="1">
+        <v>44620</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H433" t="s">
+        <v>28</v>
+      </c>
+      <c r="I433">
+        <v>3</v>
+      </c>
+      <c r="J433" t="s">
+        <v>220</v>
+      </c>
+      <c r="K433" t="s">
+        <v>53</v>
+      </c>
+      <c r="L433">
+        <v>136</v>
+      </c>
+      <c r="M433">
+        <v>46</v>
+      </c>
+      <c r="N433">
+        <v>469</v>
+      </c>
+      <c r="O433">
+        <v>1133</v>
+      </c>
+      <c r="P433">
+        <v>5</v>
+      </c>
+      <c r="Q433">
+        <v>7</v>
+      </c>
+      <c r="R433">
+        <v>6</v>
+      </c>
+      <c r="S433">
+        <v>0</v>
+      </c>
+      <c r="T433">
+        <v>6</v>
+      </c>
+      <c r="U433">
+        <v>3</v>
+      </c>
+      <c r="V433">
+        <v>2</v>
+      </c>
+      <c r="W433">
+        <v>1</v>
+      </c>
+      <c r="X433" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y433">
+        <v>2.75</v>
+      </c>
+      <c r="Z433">
+        <v>1.44</v>
+      </c>
+      <c r="AA433">
+        <v>2.98</v>
+      </c>
+      <c r="AB433">
+        <v>1.44</v>
+      </c>
+      <c r="AC433">
+        <v>3</v>
+      </c>
+      <c r="AD433">
+        <v>1.48</v>
+      </c>
+      <c r="AE433">
+        <v>2.81</v>
+      </c>
+      <c r="AF433">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="434" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>11</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D434" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H434" t="s">
+        <v>28</v>
+      </c>
+      <c r="I434">
+        <v>3</v>
+      </c>
+      <c r="J434" t="s">
+        <v>26</v>
+      </c>
+      <c r="K434" t="s">
+        <v>221</v>
+      </c>
+      <c r="L434">
+        <v>30</v>
+      </c>
+      <c r="M434">
+        <v>156</v>
+      </c>
+      <c r="N434">
+        <v>1666</v>
+      </c>
+      <c r="O434">
+        <v>416</v>
+      </c>
+      <c r="P434">
+        <v>6</v>
+      </c>
+      <c r="Q434">
+        <v>3</v>
+      </c>
+      <c r="R434">
+        <v>6</v>
+      </c>
+      <c r="S434">
+        <v>1</v>
+      </c>
+      <c r="V434">
+        <v>2</v>
+      </c>
+      <c r="W434">
+        <v>0</v>
+      </c>
+      <c r="X434" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y434">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Z434">
+        <v>5</v>
+      </c>
+      <c r="AC434">
+        <v>1.23</v>
+      </c>
+      <c r="AD434">
+        <v>5.5</v>
+      </c>
+      <c r="AE434">
+        <v>1.18</v>
+      </c>
+      <c r="AF434">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="435" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>11</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D435" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H435" t="s">
+        <v>28</v>
+      </c>
+      <c r="I435">
+        <v>3</v>
+      </c>
+      <c r="J435" t="s">
+        <v>41</v>
+      </c>
+      <c r="K435" t="s">
+        <v>56</v>
+      </c>
+      <c r="L435">
+        <v>55</v>
+      </c>
+      <c r="M435">
+        <v>107</v>
+      </c>
+      <c r="N435">
+        <v>1083</v>
+      </c>
+      <c r="O435">
+        <v>617</v>
+      </c>
+      <c r="P435">
+        <v>6</v>
+      </c>
+      <c r="Q435">
+        <v>0</v>
+      </c>
+      <c r="R435">
+        <v>6</v>
+      </c>
+      <c r="S435">
+        <v>3</v>
+      </c>
+      <c r="V435">
+        <v>2</v>
+      </c>
+      <c r="W435">
+        <v>0</v>
+      </c>
+      <c r="X435" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y435">
+        <v>1.44</v>
+      </c>
+      <c r="Z435">
+        <v>2.75</v>
+      </c>
+      <c r="AA435">
+        <v>1.41</v>
+      </c>
+      <c r="AB435">
+        <v>3.14</v>
+      </c>
+      <c r="AC435">
+        <v>1.48</v>
+      </c>
+      <c r="AD435">
+        <v>3.14</v>
+      </c>
+      <c r="AE435">
+        <v>1.42</v>
+      </c>
+      <c r="AF435">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="436" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>11</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D436" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H436" t="s">
+        <v>28</v>
+      </c>
+      <c r="I436">
+        <v>3</v>
+      </c>
+      <c r="J436" t="s">
+        <v>66</v>
+      </c>
+      <c r="K436" t="s">
+        <v>169</v>
+      </c>
+      <c r="L436">
+        <v>64</v>
+      </c>
+      <c r="M436">
+        <v>98</v>
+      </c>
+      <c r="N436">
+        <v>975</v>
+      </c>
+      <c r="O436">
+        <v>690</v>
+      </c>
+      <c r="P436">
+        <v>7</v>
+      </c>
+      <c r="Q436">
+        <v>6</v>
+      </c>
+      <c r="R436">
+        <v>7</v>
+      </c>
+      <c r="S436">
+        <v>5</v>
+      </c>
+      <c r="V436">
+        <v>2</v>
+      </c>
+      <c r="W436">
+        <v>0</v>
+      </c>
+      <c r="X436" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y436">
+        <v>1.53</v>
+      </c>
+      <c r="Z436">
+        <v>2.5</v>
+      </c>
+      <c r="AA436">
+        <v>1.59</v>
+      </c>
+      <c r="AB436">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AC436">
+        <v>1.59</v>
+      </c>
+      <c r="AD436">
+        <v>2.61</v>
+      </c>
+      <c r="AE436">
+        <v>1.54</v>
+      </c>
+      <c r="AF436">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="437" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>11</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D437" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H437" t="s">
+        <v>28</v>
+      </c>
+      <c r="I437">
+        <v>3</v>
+      </c>
+      <c r="J437" t="s">
+        <v>152</v>
+      </c>
+      <c r="K437" t="s">
+        <v>145</v>
+      </c>
+      <c r="L437">
+        <v>63</v>
+      </c>
+      <c r="M437">
+        <v>70</v>
+      </c>
+      <c r="N437">
+        <v>988</v>
+      </c>
+      <c r="O437">
+        <v>904</v>
+      </c>
+      <c r="P437">
+        <v>6</v>
+      </c>
+      <c r="Q437">
+        <v>2</v>
+      </c>
+      <c r="R437">
+        <v>6</v>
+      </c>
+      <c r="S437">
+        <v>0</v>
+      </c>
+      <c r="V437">
+        <v>2</v>
+      </c>
+      <c r="W437">
+        <v>0</v>
+      </c>
+      <c r="X437" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y437">
+        <v>1.33</v>
+      </c>
+      <c r="Z437">
+        <v>3.4</v>
+      </c>
+      <c r="AA437">
+        <v>1.36</v>
+      </c>
+      <c r="AB437">
+        <v>3.42</v>
+      </c>
+      <c r="AC437">
+        <v>1.36</v>
+      </c>
+      <c r="AD437">
+        <v>3.66</v>
+      </c>
+      <c r="AE437">
+        <v>1.33</v>
+      </c>
+      <c r="AF437">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="438" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>11</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D438" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H438" t="s">
+        <v>28</v>
+      </c>
+      <c r="I438">
+        <v>3</v>
+      </c>
+      <c r="J438" t="s">
+        <v>39</v>
+      </c>
+      <c r="K438" t="s">
+        <v>170</v>
+      </c>
+      <c r="L438">
+        <v>74</v>
+      </c>
+      <c r="M438">
+        <v>29</v>
+      </c>
+      <c r="N438">
+        <v>885</v>
+      </c>
+      <c r="O438">
+        <v>1673</v>
+      </c>
+      <c r="P438">
+        <v>5</v>
+      </c>
+      <c r="Q438">
+        <v>7</v>
+      </c>
+      <c r="R438">
+        <v>6</v>
+      </c>
+      <c r="S438">
+        <v>4</v>
+      </c>
+      <c r="T438">
+        <v>6</v>
+      </c>
+      <c r="U438">
+        <v>0</v>
+      </c>
+      <c r="V438">
+        <v>2</v>
+      </c>
+      <c r="W438">
+        <v>1</v>
+      </c>
+      <c r="X438" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y438">
+        <v>2.37</v>
+      </c>
+      <c r="Z438">
+        <v>1.57</v>
+      </c>
+      <c r="AA438">
+        <v>2.36</v>
+      </c>
+      <c r="AB438">
+        <v>1.65</v>
+      </c>
+      <c r="AC438">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AD438">
+        <v>1.65</v>
+      </c>
+      <c r="AE438">
+        <v>2.39</v>
+      </c>
+      <c r="AF438">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="439" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>11</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D439" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H439" t="s">
+        <v>28</v>
+      </c>
+      <c r="I439">
+        <v>3</v>
+      </c>
+      <c r="J439" t="s">
+        <v>182</v>
+      </c>
+      <c r="K439" t="s">
+        <v>222</v>
+      </c>
+      <c r="L439">
+        <v>92</v>
+      </c>
+      <c r="M439">
+        <v>232</v>
+      </c>
+      <c r="N439">
+        <v>754</v>
+      </c>
+      <c r="O439">
+        <v>285</v>
+      </c>
+      <c r="P439">
+        <v>6</v>
+      </c>
+      <c r="Q439">
+        <v>3</v>
+      </c>
+      <c r="R439">
+        <v>6</v>
+      </c>
+      <c r="S439">
+        <v>2</v>
+      </c>
+      <c r="V439">
+        <v>2</v>
+      </c>
+      <c r="W439">
+        <v>0</v>
+      </c>
+      <c r="X439" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y439">
+        <v>1.44</v>
+      </c>
+      <c r="Z439">
+        <v>2.75</v>
+      </c>
+      <c r="AA439">
+        <v>1.43</v>
+      </c>
+      <c r="AB439">
+        <v>3.05</v>
+      </c>
+      <c r="AC439">
+        <v>1.54</v>
+      </c>
+      <c r="AD439">
+        <v>3.05</v>
+      </c>
+      <c r="AE439">
+        <v>1.42</v>
+      </c>
+      <c r="AF439">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="440" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>11</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D440" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H440" t="s">
+        <v>28</v>
+      </c>
+      <c r="I440">
+        <v>3</v>
+      </c>
+      <c r="J440" t="s">
+        <v>146</v>
+      </c>
+      <c r="K440" t="s">
+        <v>223</v>
+      </c>
+      <c r="L440">
+        <v>140</v>
+      </c>
+      <c r="M440">
+        <v>97</v>
+      </c>
+      <c r="N440">
+        <v>462</v>
+      </c>
+      <c r="O440">
+        <v>710</v>
+      </c>
+      <c r="P440">
+        <v>3</v>
+      </c>
+      <c r="Q440">
+        <v>6</v>
+      </c>
+      <c r="R440">
+        <v>7</v>
+      </c>
+      <c r="S440">
+        <v>6</v>
+      </c>
+      <c r="T440">
+        <v>7</v>
+      </c>
+      <c r="U440">
+        <v>6</v>
+      </c>
+      <c r="V440">
+        <v>2</v>
+      </c>
+      <c r="W440">
+        <v>1</v>
+      </c>
+      <c r="X440" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y440">
+        <v>1.8</v>
+      </c>
+      <c r="Z440">
+        <v>2</v>
+      </c>
+      <c r="AA440">
+        <v>1.74</v>
+      </c>
+      <c r="AB440">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC440">
+        <v>1.83</v>
+      </c>
+      <c r="AD440">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE440">
+        <v>1.78</v>
+      </c>
+      <c r="AF440">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="441" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>11</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D441" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H441" t="s">
+        <v>28</v>
+      </c>
+      <c r="I441">
+        <v>3</v>
+      </c>
+      <c r="J441" t="s">
+        <v>224</v>
+      </c>
+      <c r="K441" t="s">
+        <v>159</v>
+      </c>
+      <c r="L441">
+        <v>167</v>
+      </c>
+      <c r="M441">
+        <v>93</v>
+      </c>
+      <c r="N441">
+        <v>388</v>
+      </c>
+      <c r="O441">
+        <v>751</v>
+      </c>
+      <c r="P441">
+        <v>6</v>
+      </c>
+      <c r="Q441">
+        <v>3</v>
+      </c>
+      <c r="R441">
+        <v>1</v>
+      </c>
+      <c r="S441">
+        <v>6</v>
+      </c>
+      <c r="T441">
+        <v>6</v>
+      </c>
+      <c r="U441">
+        <v>2</v>
+      </c>
+      <c r="V441">
+        <v>2</v>
+      </c>
+      <c r="W441">
+        <v>1</v>
+      </c>
+      <c r="X441" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y441">
+        <v>3.4</v>
+      </c>
+      <c r="Z441">
+        <v>1.33</v>
+      </c>
+      <c r="AA441">
+        <v>3.01</v>
+      </c>
+      <c r="AB441">
+        <v>1.43</v>
+      </c>
+      <c r="AC441">
+        <v>3.41</v>
+      </c>
+      <c r="AD441">
+        <v>1.5</v>
+      </c>
+      <c r="AE441">
+        <v>3.06</v>
+      </c>
+      <c r="AF441">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="442" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>11</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D442" s="1">
+        <v>44622</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H442" t="s">
+        <v>28</v>
+      </c>
+      <c r="I442">
+        <v>3</v>
+      </c>
+      <c r="J442" t="s">
+        <v>225</v>
+      </c>
+      <c r="K442" t="s">
+        <v>226</v>
+      </c>
+      <c r="L442">
+        <v>118</v>
+      </c>
+      <c r="M442">
+        <v>125</v>
+      </c>
+      <c r="N442">
+        <v>556</v>
+      </c>
+      <c r="O442">
+        <v>534</v>
+      </c>
+      <c r="P442">
+        <v>6</v>
+      </c>
+      <c r="Q442">
+        <v>3</v>
+      </c>
+      <c r="R442">
+        <v>2</v>
+      </c>
+      <c r="S442">
+        <v>6</v>
+      </c>
+      <c r="T442">
+        <v>6</v>
+      </c>
+      <c r="U442">
+        <v>4</v>
+      </c>
+      <c r="V442">
+        <v>2</v>
+      </c>
+      <c r="W442">
+        <v>1</v>
+      </c>
+      <c r="X442" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y442">
+        <v>1.8</v>
+      </c>
+      <c r="Z442">
+        <v>2</v>
+      </c>
+      <c r="AA442">
+        <v>1.88</v>
+      </c>
+      <c r="AB442">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AC442">
+        <v>1.88</v>
+      </c>
+      <c r="AD442">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AE442">
+        <v>1.77</v>
+      </c>
+      <c r="AF442">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="443" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>11</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D443" s="1">
+        <v>44622</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H443" t="s">
+        <v>28</v>
+      </c>
+      <c r="I443">
+        <v>3</v>
+      </c>
+      <c r="J443" t="s">
+        <v>52</v>
+      </c>
+      <c r="K443" t="s">
+        <v>68</v>
+      </c>
+      <c r="L443">
+        <v>35</v>
+      </c>
+      <c r="M443">
+        <v>130</v>
+      </c>
+      <c r="N443">
+        <v>1452</v>
+      </c>
+      <c r="O443">
+        <v>504</v>
+      </c>
+      <c r="P443">
+        <v>1</v>
+      </c>
+      <c r="Q443">
+        <v>6</v>
+      </c>
+      <c r="R443">
+        <v>6</v>
+      </c>
+      <c r="S443">
+        <v>4</v>
+      </c>
+      <c r="T443">
+        <v>6</v>
+      </c>
+      <c r="U443">
+        <v>4</v>
+      </c>
+      <c r="V443">
+        <v>2</v>
+      </c>
+      <c r="W443">
+        <v>1</v>
+      </c>
+      <c r="X443" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC443">
+        <v>1.51</v>
+      </c>
+      <c r="AD443">
+        <v>5</v>
+      </c>
+      <c r="AE443">
+        <v>1.23</v>
+      </c>
+      <c r="AF443">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="444" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>11</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D444" s="1">
+        <v>44622</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H444" t="s">
+        <v>19</v>
+      </c>
+      <c r="I444">
+        <v>3</v>
+      </c>
+      <c r="J444" t="s">
+        <v>58</v>
+      </c>
+      <c r="K444" t="s">
+        <v>220</v>
+      </c>
+      <c r="L444">
+        <v>79</v>
+      </c>
+      <c r="M444">
+        <v>136</v>
+      </c>
+      <c r="N444">
+        <v>830</v>
+      </c>
+      <c r="O444">
+        <v>469</v>
+      </c>
+      <c r="P444">
+        <v>6</v>
+      </c>
+      <c r="Q444">
+        <v>3</v>
+      </c>
+      <c r="V444">
+        <v>1</v>
+      </c>
+      <c r="W444">
+        <v>0</v>
+      </c>
+      <c r="X444" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y444">
+        <v>2.75</v>
+      </c>
+      <c r="Z444">
+        <v>1.44</v>
+      </c>
+      <c r="AA444">
+        <v>3.22</v>
+      </c>
+      <c r="AB444">
+        <v>1.4</v>
+      </c>
+      <c r="AC444">
+        <v>3.22</v>
+      </c>
+      <c r="AD444">
+        <v>1.52</v>
+      </c>
+      <c r="AE444">
+        <v>2.79</v>
+      </c>
+      <c r="AF444">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="445" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>11</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D445" s="1">
+        <v>44622</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H445" t="s">
+        <v>19</v>
+      </c>
+      <c r="I445">
+        <v>3</v>
+      </c>
+      <c r="J445" t="s">
+        <v>26</v>
+      </c>
+      <c r="K445" t="s">
+        <v>187</v>
+      </c>
+      <c r="L445">
+        <v>30</v>
+      </c>
+      <c r="M445">
+        <v>144</v>
+      </c>
+      <c r="N445">
+        <v>1666</v>
+      </c>
+      <c r="O445">
+        <v>442</v>
+      </c>
+      <c r="P445">
+        <v>6</v>
+      </c>
+      <c r="Q445">
+        <v>3</v>
+      </c>
+      <c r="R445">
+        <v>7</v>
+      </c>
+      <c r="S445">
+        <v>5</v>
+      </c>
+      <c r="V445">
+        <v>2</v>
+      </c>
+      <c r="W445">
+        <v>0</v>
+      </c>
+      <c r="X445" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y445">
+        <v>1.2</v>
+      </c>
+      <c r="Z445">
+        <v>4.5</v>
+      </c>
+      <c r="AA445">
+        <v>1.24</v>
+      </c>
+      <c r="AB445">
+        <v>4.59</v>
+      </c>
+      <c r="AC445">
+        <v>1.25</v>
+      </c>
+      <c r="AD445">
+        <v>5</v>
+      </c>
+      <c r="AE445">
+        <v>1.22</v>
+      </c>
+      <c r="AF445">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="446" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>11</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D446" s="1">
+        <v>44622</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H446" t="s">
+        <v>19</v>
+      </c>
+      <c r="I446">
+        <v>3</v>
+      </c>
+      <c r="J446" t="s">
+        <v>41</v>
+      </c>
+      <c r="K446" t="s">
+        <v>38</v>
+      </c>
+      <c r="L446">
+        <v>55</v>
+      </c>
+      <c r="M446">
+        <v>71</v>
+      </c>
+      <c r="N446">
+        <v>1083</v>
+      </c>
+      <c r="O446">
+        <v>902</v>
+      </c>
+      <c r="P446">
+        <v>6</v>
+      </c>
+      <c r="Q446">
+        <v>2</v>
+      </c>
+      <c r="R446">
+        <v>6</v>
+      </c>
+      <c r="S446">
+        <v>4</v>
+      </c>
+      <c r="V446">
+        <v>2</v>
+      </c>
+      <c r="W446">
+        <v>0</v>
+      </c>
+      <c r="X446" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y446">
+        <v>1.33</v>
+      </c>
+      <c r="Z446">
+        <v>3.4</v>
+      </c>
+      <c r="AA446">
+        <v>1.4</v>
+      </c>
+      <c r="AB446">
+        <v>3.18</v>
+      </c>
+      <c r="AC446">
+        <v>1.4</v>
+      </c>
+      <c r="AD446">
+        <v>3.68</v>
+      </c>
+      <c r="AE446">
+        <v>1.34</v>
+      </c>
+      <c r="AF446">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="447" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>11</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D447" s="1">
+        <v>44623</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H447" t="s">
+        <v>19</v>
+      </c>
+      <c r="I447">
+        <v>3</v>
+      </c>
+      <c r="J447" t="s">
+        <v>66</v>
+      </c>
+      <c r="K447" t="s">
+        <v>152</v>
+      </c>
+      <c r="L447">
+        <v>64</v>
+      </c>
+      <c r="M447">
+        <v>63</v>
+      </c>
+      <c r="N447">
+        <v>975</v>
+      </c>
+      <c r="O447">
+        <v>988</v>
+      </c>
+      <c r="P447">
+        <v>6</v>
+      </c>
+      <c r="Q447">
+        <v>4</v>
+      </c>
+      <c r="R447">
+        <v>6</v>
+      </c>
+      <c r="S447">
+        <v>4</v>
+      </c>
+      <c r="V447">
+        <v>2</v>
+      </c>
+      <c r="W447">
+        <v>0</v>
+      </c>
+      <c r="X447" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y447">
+        <v>2.37</v>
+      </c>
+      <c r="Z447">
+        <v>1.57</v>
+      </c>
+      <c r="AA447">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AB447">
+        <v>1.58</v>
+      </c>
+      <c r="AC447">
+        <v>2.73</v>
+      </c>
+      <c r="AD447">
+        <v>1.62</v>
+      </c>
+      <c r="AE447">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AF447">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="448" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>11</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D448" s="1">
+        <v>44623</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H448" t="s">
+        <v>19</v>
+      </c>
+      <c r="I448">
+        <v>3</v>
+      </c>
+      <c r="J448" t="s">
+        <v>225</v>
+      </c>
+      <c r="K448" t="s">
+        <v>52</v>
+      </c>
+      <c r="L448">
+        <v>118</v>
+      </c>
+      <c r="M448">
+        <v>35</v>
+      </c>
+      <c r="N448">
+        <v>556</v>
+      </c>
+      <c r="O448">
+        <v>1452</v>
+      </c>
+      <c r="P448">
+        <v>7</v>
+      </c>
+      <c r="Q448">
+        <v>6</v>
+      </c>
+      <c r="R448">
+        <v>4</v>
+      </c>
+      <c r="S448">
+        <v>6</v>
+      </c>
+      <c r="T448">
+        <v>6</v>
+      </c>
+      <c r="U448">
+        <v>4</v>
+      </c>
+      <c r="V448">
+        <v>2</v>
+      </c>
+      <c r="W448">
+        <v>1</v>
+      </c>
+      <c r="X448" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y448">
+        <v>4</v>
+      </c>
+      <c r="Z448">
+        <v>1.25</v>
+      </c>
+      <c r="AA448">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AB448">
+        <v>1.28</v>
+      </c>
+      <c r="AC448">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AD448">
+        <v>1.37</v>
+      </c>
+      <c r="AE448">
+        <v>3.75</v>
+      </c>
+      <c r="AF448">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="449" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>11</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D449" s="1">
+        <v>44623</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H449" t="s">
+        <v>19</v>
+      </c>
+      <c r="I449">
+        <v>3</v>
+      </c>
+      <c r="J449" t="s">
+        <v>39</v>
+      </c>
+      <c r="K449" t="s">
+        <v>182</v>
+      </c>
+      <c r="L449">
+        <v>74</v>
+      </c>
+      <c r="M449">
+        <v>92</v>
+      </c>
+      <c r="N449">
+        <v>885</v>
+      </c>
+      <c r="O449">
+        <v>754</v>
+      </c>
+      <c r="P449">
+        <v>6</v>
+      </c>
+      <c r="Q449">
+        <v>4</v>
+      </c>
+      <c r="R449">
+        <v>2</v>
+      </c>
+      <c r="S449">
+        <v>6</v>
+      </c>
+      <c r="T449">
+        <v>6</v>
+      </c>
+      <c r="U449">
+        <v>3</v>
+      </c>
+      <c r="V449">
+        <v>2</v>
+      </c>
+      <c r="W449">
+        <v>1</v>
+      </c>
+      <c r="X449" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y449">
+        <v>1.28</v>
+      </c>
+      <c r="Z449">
+        <v>3.75</v>
+      </c>
+      <c r="AA449">
+        <v>1.31</v>
+      </c>
+      <c r="AB449">
+        <v>3.8</v>
+      </c>
+      <c r="AC449">
+        <v>1.36</v>
+      </c>
+      <c r="AD449">
+        <v>4.05</v>
+      </c>
+      <c r="AE449">
+        <v>1.29</v>
+      </c>
+      <c r="AF449">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="450" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>11</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D450" s="1">
+        <v>44623</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H450" t="s">
+        <v>19</v>
+      </c>
+      <c r="I450">
+        <v>3</v>
+      </c>
+      <c r="J450" t="s">
+        <v>146</v>
+      </c>
+      <c r="K450" t="s">
+        <v>176</v>
+      </c>
+      <c r="L450">
+        <v>140</v>
+      </c>
+      <c r="M450">
+        <v>139</v>
+      </c>
+      <c r="N450">
+        <v>462</v>
+      </c>
+      <c r="O450">
+        <v>466</v>
+      </c>
+      <c r="P450">
+        <v>6</v>
+      </c>
+      <c r="Q450">
+        <v>2</v>
+      </c>
+      <c r="R450">
+        <v>6</v>
+      </c>
+      <c r="S450">
+        <v>3</v>
+      </c>
+      <c r="V450">
+        <v>2</v>
+      </c>
+      <c r="W450">
+        <v>0</v>
+      </c>
+      <c r="X450" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y450">
+        <v>1.36</v>
+      </c>
+      <c r="Z450">
+        <v>3.2</v>
+      </c>
+      <c r="AA450">
+        <v>1.37</v>
+      </c>
+      <c r="AB450">
+        <v>3.31</v>
+      </c>
+      <c r="AC450">
+        <v>1.39</v>
+      </c>
+      <c r="AD450">
+        <v>3.31</v>
+      </c>
+      <c r="AE450">
+        <v>1.36</v>
+      </c>
+      <c r="AF450">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="451" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>11</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D451" s="1">
+        <v>44623</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H451" t="s">
+        <v>19</v>
+      </c>
+      <c r="I451">
+        <v>3</v>
+      </c>
+      <c r="J451" t="s">
+        <v>24</v>
+      </c>
+      <c r="K451" t="s">
+        <v>224</v>
+      </c>
+      <c r="L451">
+        <v>48</v>
+      </c>
+      <c r="M451">
+        <v>167</v>
+      </c>
+      <c r="N451">
+        <v>1124</v>
+      </c>
+      <c r="O451">
+        <v>388</v>
+      </c>
+      <c r="P451">
+        <v>6</v>
+      </c>
+      <c r="Q451">
+        <v>1</v>
+      </c>
+      <c r="R451">
+        <v>6</v>
+      </c>
+      <c r="S451">
+        <v>2</v>
+      </c>
+      <c r="V451">
+        <v>2</v>
+      </c>
+      <c r="W451">
+        <v>0</v>
+      </c>
+      <c r="X451" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y451">
+        <v>1.25</v>
+      </c>
+      <c r="Z451">
+        <v>4</v>
+      </c>
+      <c r="AA451">
+        <v>1.29</v>
+      </c>
+      <c r="AB451">
+        <v>3.96</v>
+      </c>
+      <c r="AC451">
+        <v>1.29</v>
+      </c>
+      <c r="AD451">
+        <v>4.2</v>
+      </c>
+      <c r="AE451">
+        <v>1.25</v>
+      </c>
+      <c r="AF451">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="452" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>11</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D452" s="1">
+        <v>44624</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H452" t="s">
+        <v>13</v>
+      </c>
+      <c r="I452">
+        <v>3</v>
+      </c>
+      <c r="J452" t="s">
+        <v>66</v>
+      </c>
+      <c r="K452" t="s">
+        <v>225</v>
+      </c>
+      <c r="L452">
+        <v>64</v>
+      </c>
+      <c r="M452">
+        <v>118</v>
+      </c>
+      <c r="N452">
+        <v>975</v>
+      </c>
+      <c r="O452">
+        <v>556</v>
+      </c>
+      <c r="P452">
+        <v>3</v>
+      </c>
+      <c r="Q452">
+        <v>0</v>
+      </c>
+      <c r="V452">
+        <v>0</v>
+      </c>
+      <c r="W452">
+        <v>0</v>
+      </c>
+      <c r="X452" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y452">
+        <v>1.4</v>
+      </c>
+      <c r="Z452">
+        <v>3</v>
+      </c>
+      <c r="AA452">
+        <v>1.37</v>
+      </c>
+      <c r="AB452">
+        <v>3.38</v>
+      </c>
+      <c r="AC452">
+        <v>1.44</v>
+      </c>
+      <c r="AD452">
+        <v>3.41</v>
+      </c>
+      <c r="AE452">
+        <v>1.39</v>
+      </c>
+      <c r="AF452">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="453" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>11</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D453" s="1">
+        <v>44624</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H453" t="s">
+        <v>13</v>
+      </c>
+      <c r="I453">
+        <v>3</v>
+      </c>
+      <c r="J453" t="s">
+        <v>146</v>
+      </c>
+      <c r="K453" t="s">
+        <v>24</v>
+      </c>
+      <c r="L453">
+        <v>140</v>
+      </c>
+      <c r="M453">
+        <v>48</v>
+      </c>
+      <c r="N453">
+        <v>462</v>
+      </c>
+      <c r="O453">
+        <v>1124</v>
+      </c>
+      <c r="P453">
+        <v>6</v>
+      </c>
+      <c r="Q453">
+        <v>4</v>
+      </c>
+      <c r="R453">
+        <v>7</v>
+      </c>
+      <c r="S453">
+        <v>6</v>
+      </c>
+      <c r="V453">
+        <v>2</v>
+      </c>
+      <c r="W453">
+        <v>0</v>
+      </c>
+      <c r="X453" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y453">
+        <v>1.72</v>
+      </c>
+      <c r="Z453">
+        <v>2.1</v>
+      </c>
+      <c r="AA453">
+        <v>1.92</v>
+      </c>
+      <c r="AB453">
+        <v>1.99</v>
+      </c>
+      <c r="AC453">
+        <v>1.92</v>
+      </c>
+      <c r="AD453">
+        <v>2.23</v>
+      </c>
+      <c r="AE453">
+        <v>1.75</v>
+      </c>
+      <c r="AF453">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="454" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>11</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D454" s="1">
+        <v>44624</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H454" t="s">
+        <v>13</v>
+      </c>
+      <c r="I454">
+        <v>3</v>
+      </c>
+      <c r="J454" t="s">
+        <v>39</v>
+      </c>
+      <c r="K454" t="s">
+        <v>41</v>
+      </c>
+      <c r="L454">
+        <v>74</v>
+      </c>
+      <c r="M454">
+        <v>55</v>
+      </c>
+      <c r="N454">
+        <v>885</v>
+      </c>
+      <c r="O454">
+        <v>1083</v>
+      </c>
+      <c r="P454">
+        <v>4</v>
+      </c>
+      <c r="Q454">
+        <v>6</v>
+      </c>
+      <c r="R454">
+        <v>6</v>
+      </c>
+      <c r="S454">
+        <v>3</v>
+      </c>
+      <c r="T454">
+        <v>7</v>
+      </c>
+      <c r="U454">
+        <v>5</v>
+      </c>
+      <c r="V454">
+        <v>2</v>
+      </c>
+      <c r="W454">
+        <v>1</v>
+      </c>
+      <c r="X454" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y454">
+        <v>2.75</v>
+      </c>
+      <c r="Z454">
+        <v>1.44</v>
+      </c>
+      <c r="AA454">
+        <v>2.9</v>
+      </c>
+      <c r="AB454">
+        <v>1.47</v>
+      </c>
+      <c r="AC454">
+        <v>3</v>
+      </c>
+      <c r="AD454">
+        <v>1.54</v>
+      </c>
+      <c r="AE454">
+        <v>2.75</v>
+      </c>
+      <c r="AF454">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="455" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>11</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D455" s="1">
+        <v>44624</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H455" t="s">
+        <v>13</v>
+      </c>
+      <c r="I455">
+        <v>3</v>
+      </c>
+      <c r="J455" t="s">
+        <v>26</v>
+      </c>
+      <c r="K455" t="s">
+        <v>58</v>
+      </c>
+      <c r="L455">
+        <v>30</v>
+      </c>
+      <c r="M455">
+        <v>79</v>
+      </c>
+      <c r="N455">
+        <v>1666</v>
+      </c>
+      <c r="O455">
+        <v>830</v>
+      </c>
+      <c r="P455">
+        <v>6</v>
+      </c>
+      <c r="Q455">
+        <v>3</v>
+      </c>
+      <c r="R455">
+        <v>6</v>
+      </c>
+      <c r="S455">
+        <v>3</v>
+      </c>
+      <c r="V455">
+        <v>2</v>
+      </c>
+      <c r="W455">
+        <v>0</v>
+      </c>
+      <c r="X455" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y455">
+        <v>1.22</v>
+      </c>
+      <c r="Z455">
+        <v>4.33</v>
+      </c>
+      <c r="AA455">
+        <v>1.24</v>
+      </c>
+      <c r="AB455">
+        <v>4.54</v>
+      </c>
+      <c r="AC455">
+        <v>1.24</v>
+      </c>
+      <c r="AD455">
+        <v>4.66</v>
+      </c>
+      <c r="AE455">
+        <v>1.22</v>
+      </c>
+      <c r="AF455">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="456" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>11</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D456" s="1">
+        <v>44625</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H456" t="s">
+        <v>10</v>
+      </c>
+      <c r="I456">
+        <v>3</v>
+      </c>
+      <c r="J456" t="s">
+        <v>66</v>
+      </c>
+      <c r="K456" t="s">
+        <v>39</v>
+      </c>
+      <c r="L456">
+        <v>64</v>
+      </c>
+      <c r="M456">
+        <v>74</v>
+      </c>
+      <c r="N456">
+        <v>975</v>
+      </c>
+      <c r="O456">
+        <v>885</v>
+      </c>
+      <c r="P456">
+        <v>6</v>
+      </c>
+      <c r="Q456">
+        <v>2</v>
+      </c>
+      <c r="R456">
+        <v>7</v>
+      </c>
+      <c r="S456">
+        <v>5</v>
+      </c>
+      <c r="V456">
+        <v>2</v>
+      </c>
+      <c r="W456">
+        <v>0</v>
+      </c>
+      <c r="X456" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y456">
+        <v>1.72</v>
+      </c>
+      <c r="Z456">
+        <v>2.1</v>
+      </c>
+      <c r="AA456">
+        <v>1.81</v>
+      </c>
+      <c r="AB456">
+        <v>2.12</v>
+      </c>
+      <c r="AC456">
+        <v>1.84</v>
+      </c>
+      <c r="AD456">
+        <v>2.13</v>
+      </c>
+      <c r="AE456">
+        <v>1.76</v>
+      </c>
+      <c r="AF456">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="457" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>11</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D457" s="1">
+        <v>44625</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H457" t="s">
+        <v>10</v>
+      </c>
+      <c r="I457">
+        <v>3</v>
+      </c>
+      <c r="J457" t="s">
+        <v>146</v>
+      </c>
+      <c r="K457" t="s">
+        <v>26</v>
+      </c>
+      <c r="L457">
+        <v>140</v>
+      </c>
+      <c r="M457">
+        <v>30</v>
+      </c>
+      <c r="N457">
+        <v>462</v>
+      </c>
+      <c r="O457">
+        <v>1666</v>
+      </c>
+      <c r="P457">
+        <v>7</v>
+      </c>
+      <c r="Q457">
+        <v>6</v>
+      </c>
+      <c r="R457">
+        <v>4</v>
+      </c>
+      <c r="S457">
+        <v>6</v>
+      </c>
+      <c r="T457">
+        <v>6</v>
+      </c>
+      <c r="U457">
+        <v>4</v>
+      </c>
+      <c r="V457">
+        <v>2</v>
+      </c>
+      <c r="W457">
+        <v>1</v>
+      </c>
+      <c r="X457" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y457">
+        <v>1.72</v>
+      </c>
+      <c r="Z457">
+        <v>2.1</v>
+      </c>
+      <c r="AA457">
+        <v>1.78</v>
+      </c>
+      <c r="AB457">
+        <v>2.17</v>
+      </c>
+      <c r="AC457">
+        <v>1.83</v>
+      </c>
+      <c r="AD457">
+        <v>2.21</v>
+      </c>
+      <c r="AE457">
+        <v>1.73</v>
+      </c>
+      <c r="AF457">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>11</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D458" s="1">
+        <v>44626</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H458" t="s">
+        <v>3</v>
+      </c>
+      <c r="I458">
+        <v>3</v>
+      </c>
+      <c r="J458" t="s">
+        <v>66</v>
+      </c>
+      <c r="K458" t="s">
+        <v>146</v>
+      </c>
+      <c r="L458">
+        <v>64</v>
+      </c>
+      <c r="M458">
+        <v>140</v>
+      </c>
+      <c r="N458">
+        <v>975</v>
+      </c>
+      <c r="O458">
+        <v>462</v>
+      </c>
+      <c r="P458">
+        <v>3</v>
+      </c>
+      <c r="Q458">
+        <v>6</v>
+      </c>
+      <c r="R458">
+        <v>6</v>
+      </c>
+      <c r="S458">
+        <v>3</v>
+      </c>
+      <c r="T458">
+        <v>6</v>
+      </c>
+      <c r="U458">
+        <v>4</v>
+      </c>
+      <c r="V458">
+        <v>2</v>
+      </c>
+      <c r="W458">
+        <v>1</v>
+      </c>
+      <c r="X458" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y458">
+        <v>2.1</v>
+      </c>
+      <c r="Z458">
+        <v>1.72</v>
+      </c>
+      <c r="AA458">
+        <v>2.11</v>
+      </c>
+      <c r="AB458">
+        <v>1.81</v>
+      </c>
+      <c r="AC458">
+        <v>2.19</v>
+      </c>
+      <c r="AD458">
+        <v>1.81</v>
+      </c>
+      <c r="AE458">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AF458">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="459" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>12</v>
+      </c>
+      <c r="B459" t="s">
+        <v>227</v>
+      </c>
+      <c r="C459" t="s">
+        <v>228</v>
+      </c>
+      <c r="D459" s="1">
+        <v>44620</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H459" t="s">
+        <v>28</v>
+      </c>
+      <c r="I459">
+        <v>3</v>
+      </c>
+      <c r="J459" t="s">
+        <v>23</v>
+      </c>
+      <c r="K459" t="s">
+        <v>12</v>
+      </c>
+      <c r="L459">
+        <v>36</v>
+      </c>
+      <c r="M459">
+        <v>106</v>
+      </c>
+      <c r="N459">
+        <v>1368</v>
+      </c>
+      <c r="O459">
+        <v>619</v>
+      </c>
+      <c r="P459">
+        <v>7</v>
+      </c>
+      <c r="Q459">
+        <v>5</v>
+      </c>
+      <c r="R459">
+        <v>6</v>
+      </c>
+      <c r="S459">
+        <v>7</v>
+      </c>
+      <c r="T459">
+        <v>6</v>
+      </c>
+      <c r="U459">
+        <v>1</v>
+      </c>
+      <c r="V459">
+        <v>2</v>
+      </c>
+      <c r="W459">
+        <v>1</v>
+      </c>
+      <c r="X459" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y459">
+        <v>1.44</v>
+      </c>
+      <c r="Z459">
+        <v>2.75</v>
+      </c>
+      <c r="AA459">
+        <v>1.43</v>
+      </c>
+      <c r="AB459">
+        <v>3.01</v>
+      </c>
+      <c r="AC459">
+        <v>1.46</v>
+      </c>
+      <c r="AD459">
+        <v>3.02</v>
+      </c>
+      <c r="AE459">
+        <v>1.42</v>
+      </c>
+      <c r="AF459">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="460" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>12</v>
+      </c>
+      <c r="B460" t="s">
+        <v>227</v>
+      </c>
+      <c r="C460" t="s">
+        <v>228</v>
+      </c>
+      <c r="D460" s="1">
+        <v>44620</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H460" t="s">
+        <v>28</v>
+      </c>
+      <c r="I460">
+        <v>3</v>
+      </c>
+      <c r="J460" t="s">
+        <v>36</v>
+      </c>
+      <c r="K460" t="s">
+        <v>178</v>
+      </c>
+      <c r="L460">
+        <v>69</v>
+      </c>
+      <c r="M460">
+        <v>83</v>
+      </c>
+      <c r="N460">
+        <v>914</v>
+      </c>
+      <c r="O460">
+        <v>801</v>
+      </c>
+      <c r="P460">
+        <v>1</v>
+      </c>
+      <c r="Q460">
+        <v>6</v>
+      </c>
+      <c r="R460">
+        <v>6</v>
+      </c>
+      <c r="S460">
+        <v>1</v>
+      </c>
+      <c r="T460">
+        <v>7</v>
+      </c>
+      <c r="U460">
+        <v>5</v>
+      </c>
+      <c r="V460">
+        <v>2</v>
+      </c>
+      <c r="W460">
+        <v>1</v>
+      </c>
+      <c r="X460" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y460">
+        <v>1.28</v>
+      </c>
+      <c r="Z460">
+        <v>3.75</v>
+      </c>
+      <c r="AA460">
+        <v>1.23</v>
+      </c>
+      <c r="AB460">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AC460">
+        <v>1.36</v>
+      </c>
+      <c r="AD460">
+        <v>4.71</v>
+      </c>
+      <c r="AE460">
+        <v>1.25</v>
+      </c>
+      <c r="AF460">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="461" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>12</v>
+      </c>
+      <c r="B461" t="s">
+        <v>227</v>
+      </c>
+      <c r="C461" t="s">
+        <v>228</v>
+      </c>
+      <c r="D461" s="1">
+        <v>44620</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H461" t="s">
+        <v>28</v>
+      </c>
+      <c r="I461">
+        <v>3</v>
+      </c>
+      <c r="J461" t="s">
+        <v>174</v>
+      </c>
+      <c r="K461" t="s">
+        <v>154</v>
+      </c>
+      <c r="L461">
+        <v>44</v>
+      </c>
+      <c r="M461">
+        <v>94</v>
+      </c>
+      <c r="N461">
+        <v>1192</v>
+      </c>
+      <c r="O461">
+        <v>739</v>
+      </c>
+      <c r="P461">
+        <v>6</v>
+      </c>
+      <c r="Q461">
+        <v>3</v>
+      </c>
+      <c r="R461">
+        <v>7</v>
+      </c>
+      <c r="S461">
+        <v>6</v>
+      </c>
+      <c r="V461">
+        <v>2</v>
+      </c>
+      <c r="W461">
+        <v>0</v>
+      </c>
+      <c r="X461" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y461">
+        <v>1.66</v>
+      </c>
+      <c r="Z461">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA461">
+        <v>1.62</v>
+      </c>
+      <c r="AB461">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AC461">
+        <v>1.75</v>
+      </c>
+      <c r="AD461">
+        <v>2.46</v>
+      </c>
+      <c r="AE461">
+        <v>1.6</v>
+      </c>
+      <c r="AF461">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="462" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>12</v>
+      </c>
+      <c r="B462" t="s">
+        <v>227</v>
+      </c>
+      <c r="C462" t="s">
+        <v>228</v>
+      </c>
+      <c r="D462" s="1">
+        <v>44620</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H462" t="s">
+        <v>28</v>
+      </c>
+      <c r="I462">
+        <v>3</v>
+      </c>
+      <c r="J462" t="s">
+        <v>107</v>
+      </c>
+      <c r="K462" t="s">
+        <v>203</v>
+      </c>
+      <c r="L462">
+        <v>120</v>
+      </c>
+      <c r="M462">
+        <v>110</v>
+      </c>
+      <c r="N462">
+        <v>552</v>
+      </c>
+      <c r="O462">
+        <v>606</v>
+      </c>
+      <c r="P462">
+        <v>6</v>
+      </c>
+      <c r="Q462">
+        <v>3</v>
+      </c>
+      <c r="R462">
+        <v>2</v>
+      </c>
+      <c r="S462">
+        <v>6</v>
+      </c>
+      <c r="T462">
+        <v>7</v>
+      </c>
+      <c r="U462">
+        <v>6</v>
+      </c>
+      <c r="V462">
+        <v>2</v>
+      </c>
+      <c r="W462">
+        <v>1</v>
+      </c>
+      <c r="X462" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y462">
+        <v>2.1</v>
+      </c>
+      <c r="Z462">
+        <v>1.72</v>
+      </c>
+      <c r="AA462">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AB462">
+        <v>1.73</v>
+      </c>
+      <c r="AC462">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AD462">
+        <v>1.76</v>
+      </c>
+      <c r="AE462">
+        <v>2.14</v>
+      </c>
+      <c r="AF462">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="463" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>12</v>
+      </c>
+      <c r="B463" t="s">
+        <v>227</v>
+      </c>
+      <c r="C463" t="s">
+        <v>228</v>
+      </c>
+      <c r="D463" s="1">
+        <v>44620</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H463" t="s">
+        <v>28</v>
+      </c>
+      <c r="I463">
+        <v>3</v>
+      </c>
+      <c r="J463" t="s">
+        <v>184</v>
+      </c>
+      <c r="K463" t="s">
+        <v>175</v>
+      </c>
+      <c r="L463">
+        <v>103</v>
+      </c>
+      <c r="M463">
+        <v>100</v>
+      </c>
+      <c r="N463">
+        <v>624</v>
+      </c>
+      <c r="O463">
+        <v>679</v>
+      </c>
+      <c r="P463">
+        <v>6</v>
+      </c>
+      <c r="Q463">
+        <v>4</v>
+      </c>
+      <c r="R463">
+        <v>6</v>
+      </c>
+      <c r="S463">
+        <v>0</v>
+      </c>
+      <c r="V463">
+        <v>2</v>
+      </c>
+      <c r="W463">
+        <v>0</v>
+      </c>
+      <c r="X463" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y463">
+        <v>2</v>
+      </c>
+      <c r="Z463">
+        <v>1.8</v>
+      </c>
+      <c r="AA463">
+        <v>2.14</v>
+      </c>
+      <c r="AB463">
+        <v>1.78</v>
+      </c>
+      <c r="AC463">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD463">
+        <v>1.89</v>
+      </c>
+      <c r="AE463">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AF463">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="464" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>12</v>
+      </c>
+      <c r="B464" t="s">
+        <v>227</v>
+      </c>
+      <c r="C464" t="s">
+        <v>228</v>
+      </c>
+      <c r="D464" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H464" t="s">
+        <v>28</v>
+      </c>
+      <c r="I464">
+        <v>3</v>
+      </c>
+      <c r="J464" t="s">
+        <v>229</v>
+      </c>
+      <c r="K464" t="s">
+        <v>230</v>
+      </c>
+      <c r="L464">
+        <v>262</v>
+      </c>
+      <c r="M464">
+        <v>202</v>
+      </c>
+      <c r="N464">
+        <v>261</v>
+      </c>
+      <c r="O464">
+        <v>325</v>
+      </c>
+      <c r="P464">
+        <v>6</v>
+      </c>
+      <c r="Q464">
+        <v>1</v>
+      </c>
+      <c r="R464">
+        <v>6</v>
+      </c>
+      <c r="S464">
+        <v>7</v>
+      </c>
+      <c r="T464">
+        <v>6</v>
+      </c>
+      <c r="U464">
+        <v>3</v>
+      </c>
+      <c r="V464">
+        <v>2</v>
+      </c>
+      <c r="W464">
+        <v>1</v>
+      </c>
+      <c r="X464" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y464">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z464">
+        <v>1.61</v>
+      </c>
+      <c r="AA464">
+        <v>2.37</v>
+      </c>
+      <c r="AB464">
+        <v>1.65</v>
+      </c>
+      <c r="AC464">
+        <v>2.4</v>
+      </c>
+      <c r="AD464">
+        <v>1.67</v>
+      </c>
+      <c r="AE464">
+        <v>2.29</v>
+      </c>
+      <c r="AF464">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="465" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>12</v>
+      </c>
+      <c r="B465" t="s">
+        <v>227</v>
+      </c>
+      <c r="C465" t="s">
+        <v>228</v>
+      </c>
+      <c r="D465" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H465" t="s">
+        <v>28</v>
+      </c>
+      <c r="I465">
+        <v>3</v>
+      </c>
+      <c r="J465" t="s">
+        <v>92</v>
+      </c>
+      <c r="K465" t="s">
+        <v>42</v>
+      </c>
+      <c r="L465">
+        <v>21</v>
+      </c>
+      <c r="M465">
+        <v>88</v>
+      </c>
+      <c r="N465">
+        <v>2066</v>
+      </c>
+      <c r="O465">
+        <v>772</v>
+      </c>
+      <c r="P465">
+        <v>6</v>
+      </c>
+      <c r="Q465">
+        <v>2</v>
+      </c>
+      <c r="R465">
+        <v>6</v>
+      </c>
+      <c r="S465">
+        <v>2</v>
+      </c>
+      <c r="V465">
+        <v>2</v>
+      </c>
+      <c r="W465">
+        <v>0</v>
+      </c>
+      <c r="X465" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y465">
+        <v>1.3</v>
+      </c>
+      <c r="Z465">
+        <v>3.5</v>
+      </c>
+      <c r="AA465">
+        <v>1.35</v>
+      </c>
+      <c r="AB465">
+        <v>3.45</v>
+      </c>
+      <c r="AC465">
+        <v>1.41</v>
+      </c>
+      <c r="AD465">
+        <v>3.54</v>
+      </c>
+      <c r="AE465">
+        <v>1.34</v>
+      </c>
+      <c r="AF465">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="466" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>12</v>
+      </c>
+      <c r="B466" t="s">
+        <v>227</v>
+      </c>
+      <c r="C466" t="s">
+        <v>228</v>
+      </c>
+      <c r="D466" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H466" t="s">
+        <v>28</v>
+      </c>
+      <c r="I466">
+        <v>3</v>
+      </c>
+      <c r="J466" t="s">
+        <v>167</v>
+      </c>
+      <c r="K466" t="s">
+        <v>215</v>
+      </c>
+      <c r="L466">
+        <v>99</v>
+      </c>
+      <c r="M466">
+        <v>143</v>
+      </c>
+      <c r="N466">
+        <v>687</v>
+      </c>
+      <c r="O466">
+        <v>447</v>
+      </c>
+      <c r="P466">
+        <v>6</v>
+      </c>
+      <c r="Q466">
+        <v>0</v>
+      </c>
+      <c r="R466">
+        <v>1</v>
+      </c>
+      <c r="S466">
+        <v>0</v>
+      </c>
+      <c r="V466">
+        <v>1</v>
+      </c>
+      <c r="W466">
+        <v>0</v>
+      </c>
+      <c r="X466" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y466">
+        <v>1.28</v>
+      </c>
+      <c r="Z466">
+        <v>3.75</v>
+      </c>
+      <c r="AA466">
+        <v>1.34</v>
+      </c>
+      <c r="AB466">
+        <v>3.52</v>
+      </c>
+      <c r="AC466">
+        <v>1.35</v>
+      </c>
+      <c r="AD466">
+        <v>3.75</v>
+      </c>
+      <c r="AE466">
+        <v>1.31</v>
+      </c>
+      <c r="AF466">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="467" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>12</v>
+      </c>
+      <c r="B467" t="s">
+        <v>227</v>
+      </c>
+      <c r="C467" t="s">
+        <v>228</v>
+      </c>
+      <c r="D467" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H467" t="s">
+        <v>28</v>
+      </c>
+      <c r="I467">
+        <v>3</v>
+      </c>
+      <c r="J467" t="s">
+        <v>179</v>
+      </c>
+      <c r="K467" t="s">
+        <v>231</v>
+      </c>
+      <c r="L467">
+        <v>116</v>
+      </c>
+      <c r="M467">
+        <v>104</v>
+      </c>
+      <c r="N467">
+        <v>568</v>
+      </c>
+      <c r="O467">
+        <v>622</v>
+      </c>
+      <c r="P467">
+        <v>6</v>
+      </c>
+      <c r="Q467">
+        <v>7</v>
+      </c>
+      <c r="R467">
+        <v>6</v>
+      </c>
+      <c r="S467">
+        <v>1</v>
+      </c>
+      <c r="T467">
+        <v>6</v>
+      </c>
+      <c r="U467">
+        <v>4</v>
+      </c>
+      <c r="V467">
+        <v>2</v>
+      </c>
+      <c r="W467">
+        <v>1</v>
+      </c>
+      <c r="X467" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y467">
+        <v>1.33</v>
+      </c>
+      <c r="Z467">
+        <v>3.4</v>
+      </c>
+      <c r="AA467">
+        <v>1.35</v>
+      </c>
+      <c r="AB467">
+        <v>3.45</v>
+      </c>
+      <c r="AC467">
+        <v>1.35</v>
+      </c>
+      <c r="AD467">
+        <v>3.6</v>
+      </c>
+      <c r="AE467">
+        <v>1.32</v>
+      </c>
+      <c r="AF467">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="468" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>12</v>
+      </c>
+      <c r="B468" t="s">
+        <v>227</v>
+      </c>
+      <c r="C468" t="s">
+        <v>228</v>
+      </c>
+      <c r="D468" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H468" t="s">
+        <v>28</v>
+      </c>
+      <c r="I468">
+        <v>3</v>
+      </c>
+      <c r="J468" t="s">
+        <v>94</v>
+      </c>
+      <c r="K468" t="s">
+        <v>232</v>
+      </c>
+      <c r="L468">
+        <v>81</v>
+      </c>
+      <c r="M468">
+        <v>154</v>
+      </c>
+      <c r="N468">
+        <v>813</v>
+      </c>
+      <c r="O468">
+        <v>417</v>
+      </c>
+      <c r="P468">
+        <v>4</v>
+      </c>
+      <c r="Q468">
+        <v>6</v>
+      </c>
+      <c r="R468">
+        <v>6</v>
+      </c>
+      <c r="S468">
+        <v>2</v>
+      </c>
+      <c r="T468">
+        <v>6</v>
+      </c>
+      <c r="U468">
+        <v>4</v>
+      </c>
+      <c r="V468">
+        <v>2</v>
+      </c>
+      <c r="W468">
+        <v>1</v>
+      </c>
+      <c r="X468" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y468">
+        <v>1.28</v>
+      </c>
+      <c r="Z468">
+        <v>3.75</v>
+      </c>
+      <c r="AA468">
+        <v>1.3</v>
+      </c>
+      <c r="AB468">
+        <v>3.84</v>
+      </c>
+      <c r="AC468">
+        <v>1.31</v>
+      </c>
+      <c r="AD468">
+        <v>4.49</v>
+      </c>
+      <c r="AE468">
+        <v>1.27</v>
+      </c>
+      <c r="AF468">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>12</v>
+      </c>
+      <c r="B469" t="s">
+        <v>227</v>
+      </c>
+      <c r="C469" t="s">
+        <v>228</v>
+      </c>
+      <c r="D469" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H469" t="s">
+        <v>28</v>
+      </c>
+      <c r="I469">
+        <v>3</v>
+      </c>
+      <c r="J469" t="s">
+        <v>49</v>
+      </c>
+      <c r="K469" t="s">
+        <v>101</v>
+      </c>
+      <c r="L469">
+        <v>77</v>
+      </c>
+      <c r="M469">
+        <v>102</v>
+      </c>
+      <c r="N469">
+        <v>852</v>
+      </c>
+      <c r="O469">
+        <v>649</v>
+      </c>
+      <c r="P469">
+        <v>6</v>
+      </c>
+      <c r="Q469">
+        <v>2</v>
+      </c>
+      <c r="R469">
+        <v>6</v>
+      </c>
+      <c r="S469">
+        <v>3</v>
+      </c>
+      <c r="V469">
+        <v>2</v>
+      </c>
+      <c r="W469">
+        <v>0</v>
+      </c>
+      <c r="X469" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y469">
+        <v>1.3</v>
+      </c>
+      <c r="Z469">
+        <v>3.5</v>
+      </c>
+      <c r="AA469">
+        <v>1.28</v>
+      </c>
+      <c r="AB469">
+        <v>4.05</v>
+      </c>
+      <c r="AC469">
+        <v>1.32</v>
+      </c>
+      <c r="AD469">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AE469">
+        <v>1.26</v>
+      </c>
+      <c r="AF469">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="470" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>12</v>
+      </c>
+      <c r="B470" t="s">
+        <v>227</v>
+      </c>
+      <c r="C470" t="s">
+        <v>228</v>
+      </c>
+      <c r="D470" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H470" t="s">
+        <v>28</v>
+      </c>
+      <c r="I470">
+        <v>3</v>
+      </c>
+      <c r="J470" t="s">
+        <v>29</v>
+      </c>
+      <c r="K470" t="s">
+        <v>9</v>
+      </c>
+      <c r="L470">
+        <v>90</v>
+      </c>
+      <c r="M470">
+        <v>59</v>
+      </c>
+      <c r="N470">
+        <v>765</v>
+      </c>
+      <c r="O470">
+        <v>1034</v>
+      </c>
+      <c r="P470">
+        <v>6</v>
+      </c>
+      <c r="Q470">
+        <v>2</v>
+      </c>
+      <c r="R470">
+        <v>6</v>
+      </c>
+      <c r="S470">
+        <v>1</v>
+      </c>
+      <c r="V470">
+        <v>2</v>
+      </c>
+      <c r="W470">
+        <v>0</v>
+      </c>
+      <c r="X470" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y470">
+        <v>2.5</v>
+      </c>
+      <c r="Z470">
+        <v>1.53</v>
+      </c>
+      <c r="AA470">
+        <v>2.79</v>
+      </c>
+      <c r="AB470">
+        <v>1.49</v>
+      </c>
+      <c r="AC470">
+        <v>2.88</v>
+      </c>
+      <c r="AD470">
+        <v>1.55</v>
+      </c>
+      <c r="AE470">
+        <v>2.59</v>
+      </c>
+      <c r="AF470">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="471" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>12</v>
+      </c>
+      <c r="B471" t="s">
+        <v>227</v>
+      </c>
+      <c r="C471" t="s">
+        <v>228</v>
+      </c>
+      <c r="D471" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H471" t="s">
+        <v>28</v>
+      </c>
+      <c r="I471">
+        <v>3</v>
+      </c>
+      <c r="J471" t="s">
+        <v>16</v>
+      </c>
+      <c r="K471" t="s">
+        <v>84</v>
+      </c>
+      <c r="L471">
+        <v>51</v>
+      </c>
+      <c r="M471">
+        <v>87</v>
+      </c>
+      <c r="N471">
+        <v>1103</v>
+      </c>
+      <c r="O471">
+        <v>780</v>
+      </c>
+      <c r="P471">
+        <v>6</v>
+      </c>
+      <c r="Q471">
+        <v>2</v>
+      </c>
+      <c r="R471">
+        <v>6</v>
+      </c>
+      <c r="S471">
+        <v>1</v>
+      </c>
+      <c r="V471">
+        <v>2</v>
+      </c>
+      <c r="W471">
+        <v>0</v>
+      </c>
+      <c r="X471" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y471">
+        <v>1.66</v>
+      </c>
+      <c r="Z471">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA471">
+        <v>1.61</v>
+      </c>
+      <c r="AB471">
+        <v>2.46</v>
+      </c>
+      <c r="AC471">
+        <v>1.74</v>
+      </c>
+      <c r="AD471">
+        <v>2.46</v>
+      </c>
+      <c r="AE471">
+        <v>1.63</v>
+      </c>
+      <c r="AF471">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="472" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>12</v>
+      </c>
+      <c r="B472" t="s">
+        <v>227</v>
+      </c>
+      <c r="C472" t="s">
+        <v>228</v>
+      </c>
+      <c r="D472" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H472" t="s">
+        <v>28</v>
+      </c>
+      <c r="I472">
+        <v>3</v>
+      </c>
+      <c r="J472" t="s">
+        <v>75</v>
+      </c>
+      <c r="K472" t="s">
+        <v>25</v>
+      </c>
+      <c r="L472">
+        <v>85</v>
+      </c>
+      <c r="M472">
+        <v>28</v>
+      </c>
+      <c r="N472">
+        <v>794</v>
+      </c>
+      <c r="O472">
+        <v>1690</v>
+      </c>
+      <c r="P472">
+        <v>5</v>
+      </c>
+      <c r="Q472">
+        <v>7</v>
+      </c>
+      <c r="R472">
+        <v>7</v>
+      </c>
+      <c r="S472">
+        <v>6</v>
+      </c>
+      <c r="T472">
+        <v>6</v>
+      </c>
+      <c r="U472">
+        <v>3</v>
+      </c>
+      <c r="V472">
+        <v>2</v>
+      </c>
+      <c r="W472">
+        <v>1</v>
+      </c>
+      <c r="X472" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y472">
+        <v>4.5</v>
+      </c>
+      <c r="Z472">
+        <v>1.2</v>
+      </c>
+      <c r="AA472">
+        <v>4.84</v>
+      </c>
+      <c r="AB472">
+        <v>1.22</v>
+      </c>
+      <c r="AC472">
+        <v>5</v>
+      </c>
+      <c r="AD472">
+        <v>1.25</v>
+      </c>
+      <c r="AE472">
+        <v>4.47</v>
+      </c>
+      <c r="AF472">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>12</v>
+      </c>
+      <c r="B473" t="s">
+        <v>227</v>
+      </c>
+      <c r="C473" t="s">
+        <v>228</v>
+      </c>
+      <c r="D473" s="1">
+        <v>44622</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H473" t="s">
+        <v>28</v>
+      </c>
+      <c r="I473">
+        <v>3</v>
+      </c>
+      <c r="J473" t="s">
+        <v>104</v>
+      </c>
+      <c r="K473" t="s">
+        <v>51</v>
+      </c>
+      <c r="L473">
+        <v>15</v>
+      </c>
+      <c r="M473">
+        <v>115</v>
+      </c>
+      <c r="N473">
+        <v>2427</v>
+      </c>
+      <c r="O473">
+        <v>581</v>
+      </c>
+      <c r="P473">
+        <v>6</v>
+      </c>
+      <c r="Q473">
+        <v>2</v>
+      </c>
+      <c r="R473">
+        <v>6</v>
+      </c>
+      <c r="S473">
+        <v>1</v>
+      </c>
+      <c r="V473">
+        <v>2</v>
+      </c>
+      <c r="W473">
+        <v>0</v>
+      </c>
+      <c r="X473" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y473">
+        <v>1.3</v>
+      </c>
+      <c r="Z473">
+        <v>3.5</v>
+      </c>
+      <c r="AA473">
+        <v>1.36</v>
+      </c>
+      <c r="AB473">
+        <v>3.42</v>
+      </c>
+      <c r="AC473">
+        <v>1.36</v>
+      </c>
+      <c r="AD473">
+        <v>3.6</v>
+      </c>
+      <c r="AE473">
+        <v>1.32</v>
+      </c>
+      <c r="AF473">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>12</v>
+      </c>
+      <c r="B474" t="s">
+        <v>227</v>
+      </c>
+      <c r="C474" t="s">
+        <v>228</v>
+      </c>
+      <c r="D474" s="1">
+        <v>44622</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H474" t="s">
+        <v>28</v>
+      </c>
+      <c r="I474">
+        <v>3</v>
+      </c>
+      <c r="J474" t="s">
+        <v>40</v>
+      </c>
+      <c r="K474" t="s">
+        <v>65</v>
+      </c>
+      <c r="L474">
+        <v>67</v>
+      </c>
+      <c r="M474">
+        <v>211</v>
+      </c>
+      <c r="N474">
+        <v>930</v>
+      </c>
+      <c r="O474">
+        <v>315</v>
+      </c>
+      <c r="P474">
+        <v>6</v>
+      </c>
+      <c r="Q474">
+        <v>1</v>
+      </c>
+      <c r="R474">
+        <v>6</v>
+      </c>
+      <c r="S474">
+        <v>7</v>
+      </c>
+      <c r="T474">
+        <v>6</v>
+      </c>
+      <c r="U474">
+        <v>4</v>
+      </c>
+      <c r="V474">
+        <v>2</v>
+      </c>
+      <c r="W474">
+        <v>1</v>
+      </c>
+      <c r="X474" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y474">
+        <v>1.4</v>
+      </c>
+      <c r="Z474">
+        <v>3</v>
+      </c>
+      <c r="AA474">
+        <v>1.41</v>
+      </c>
+      <c r="AB474">
+        <v>3.06</v>
+      </c>
+      <c r="AC474">
+        <v>1.42</v>
+      </c>
+      <c r="AD474">
+        <v>3.56</v>
+      </c>
+      <c r="AE474">
+        <v>1.38</v>
+      </c>
+      <c r="AF474">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="475" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>12</v>
+      </c>
+      <c r="B475" t="s">
+        <v>227</v>
+      </c>
+      <c r="C475" t="s">
+        <v>228</v>
+      </c>
+      <c r="D475" s="1">
+        <v>44622</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H475" t="s">
+        <v>19</v>
+      </c>
+      <c r="I475">
+        <v>3</v>
+      </c>
+      <c r="J475" t="s">
+        <v>36</v>
+      </c>
+      <c r="K475" t="s">
+        <v>29</v>
+      </c>
+      <c r="L475">
+        <v>69</v>
+      </c>
+      <c r="M475">
+        <v>90</v>
+      </c>
+      <c r="N475">
+        <v>914</v>
+      </c>
+      <c r="O475">
+        <v>765</v>
+      </c>
+      <c r="P475">
+        <v>6</v>
+      </c>
+      <c r="Q475">
+        <v>2</v>
+      </c>
+      <c r="R475">
+        <v>6</v>
+      </c>
+      <c r="S475">
+        <v>2</v>
+      </c>
+      <c r="V475">
+        <v>2</v>
+      </c>
+      <c r="W475">
+        <v>0</v>
+      </c>
+      <c r="X475" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y475">
+        <v>2</v>
+      </c>
+      <c r="Z475">
+        <v>1.8</v>
+      </c>
+      <c r="AA475">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AB475">
+        <v>1.85</v>
+      </c>
+      <c r="AC475">
+        <v>2.1</v>
+      </c>
+      <c r="AD475">
+        <v>1.85</v>
+      </c>
+      <c r="AE475">
+        <v>1.99</v>
+      </c>
+      <c r="AF475">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="476" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>12</v>
+      </c>
+      <c r="B476" t="s">
+        <v>227</v>
+      </c>
+      <c r="C476" t="s">
+        <v>228</v>
+      </c>
+      <c r="D476" s="1">
+        <v>44622</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H476" t="s">
+        <v>19</v>
+      </c>
+      <c r="I476">
+        <v>3</v>
+      </c>
+      <c r="J476" t="s">
+        <v>174</v>
+      </c>
+      <c r="K476" t="s">
+        <v>229</v>
+      </c>
+      <c r="L476">
+        <v>44</v>
+      </c>
+      <c r="M476">
+        <v>262</v>
+      </c>
+      <c r="N476">
+        <v>1192</v>
+      </c>
+      <c r="O476">
+        <v>261</v>
+      </c>
+      <c r="P476">
+        <v>7</v>
+      </c>
+      <c r="Q476">
+        <v>6</v>
+      </c>
+      <c r="R476">
+        <v>6</v>
+      </c>
+      <c r="S476">
+        <v>3</v>
+      </c>
+      <c r="V476">
+        <v>2</v>
+      </c>
+      <c r="W476">
+        <v>0</v>
+      </c>
+      <c r="X476" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y476">
+        <v>1.2</v>
+      </c>
+      <c r="Z476">
+        <v>4.5</v>
+      </c>
+      <c r="AA476">
+        <v>1.25</v>
+      </c>
+      <c r="AB476">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AC476">
+        <v>1.25</v>
+      </c>
+      <c r="AD476">
+        <v>4.72</v>
+      </c>
+      <c r="AE476">
+        <v>1.22</v>
+      </c>
+      <c r="AF476">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>12</v>
+      </c>
+      <c r="B477" t="s">
+        <v>227</v>
+      </c>
+      <c r="C477" t="s">
+        <v>228</v>
+      </c>
+      <c r="D477" s="1">
+        <v>44623</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H477" t="s">
+        <v>19</v>
+      </c>
+      <c r="I477">
+        <v>3</v>
+      </c>
+      <c r="J477" t="s">
+        <v>92</v>
+      </c>
+      <c r="K477" t="s">
+        <v>49</v>
+      </c>
+      <c r="L477">
+        <v>21</v>
+      </c>
+      <c r="M477">
+        <v>77</v>
+      </c>
+      <c r="N477">
+        <v>2066</v>
+      </c>
+      <c r="O477">
+        <v>852</v>
+      </c>
+      <c r="P477">
+        <v>6</v>
+      </c>
+      <c r="Q477">
+        <v>1</v>
+      </c>
+      <c r="R477">
+        <v>4</v>
+      </c>
+      <c r="S477">
+        <v>6</v>
+      </c>
+      <c r="T477">
+        <v>7</v>
+      </c>
+      <c r="U477">
+        <v>6</v>
+      </c>
+      <c r="V477">
+        <v>2</v>
+      </c>
+      <c r="W477">
+        <v>1</v>
+      </c>
+      <c r="X477" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y477">
+        <v>1.53</v>
+      </c>
+      <c r="Z477">
+        <v>2.5</v>
+      </c>
+      <c r="AA477">
+        <v>1.62</v>
+      </c>
+      <c r="AB477">
+        <v>2.46</v>
+      </c>
+      <c r="AC477">
+        <v>1.67</v>
+      </c>
+      <c r="AD477">
+        <v>2.63</v>
+      </c>
+      <c r="AE477">
+        <v>1.56</v>
+      </c>
+      <c r="AF477">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>12</v>
+      </c>
+      <c r="B478" t="s">
+        <v>227</v>
+      </c>
+      <c r="C478" t="s">
+        <v>228</v>
+      </c>
+      <c r="D478" s="1">
+        <v>44623</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H478" t="s">
+        <v>19</v>
+      </c>
+      <c r="I478">
+        <v>3</v>
+      </c>
+      <c r="J478" t="s">
+        <v>23</v>
+      </c>
+      <c r="K478" t="s">
+        <v>167</v>
+      </c>
+      <c r="L478">
+        <v>36</v>
+      </c>
+      <c r="M478">
+        <v>99</v>
+      </c>
+      <c r="N478">
+        <v>1368</v>
+      </c>
+      <c r="O478">
+        <v>687</v>
+      </c>
+      <c r="P478">
+        <v>6</v>
+      </c>
+      <c r="Q478">
+        <v>2</v>
+      </c>
+      <c r="R478">
+        <v>6</v>
+      </c>
+      <c r="S478">
+        <v>2</v>
+      </c>
+      <c r="V478">
+        <v>2</v>
+      </c>
+      <c r="W478">
+        <v>0</v>
+      </c>
+      <c r="X478" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y478">
+        <v>1.36</v>
+      </c>
+      <c r="Z478">
+        <v>3.2</v>
+      </c>
+      <c r="AA478">
+        <v>1.36</v>
+      </c>
+      <c r="AB478">
+        <v>3.43</v>
+      </c>
+      <c r="AC478">
+        <v>1.44</v>
+      </c>
+      <c r="AD478">
+        <v>3.45</v>
+      </c>
+      <c r="AE478">
+        <v>1.38</v>
+      </c>
+      <c r="AF478">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>12</v>
+      </c>
+      <c r="B479" t="s">
+        <v>227</v>
+      </c>
+      <c r="C479" t="s">
+        <v>228</v>
+      </c>
+      <c r="D479" s="1">
+        <v>44623</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H479" t="s">
+        <v>19</v>
+      </c>
+      <c r="I479">
+        <v>3</v>
+      </c>
+      <c r="J479" t="s">
+        <v>179</v>
+      </c>
+      <c r="K479" t="s">
+        <v>40</v>
+      </c>
+      <c r="L479">
+        <v>116</v>
+      </c>
+      <c r="M479">
+        <v>67</v>
+      </c>
+      <c r="N479">
+        <v>568</v>
+      </c>
+      <c r="O479">
+        <v>930</v>
+      </c>
+      <c r="P479">
+        <v>6</v>
+      </c>
+      <c r="Q479">
+        <v>0</v>
+      </c>
+      <c r="R479">
+        <v>6</v>
+      </c>
+      <c r="S479">
+        <v>7</v>
+      </c>
+      <c r="T479">
+        <v>6</v>
+      </c>
+      <c r="U479">
+        <v>3</v>
+      </c>
+      <c r="V479">
+        <v>2</v>
+      </c>
+      <c r="W479">
+        <v>1</v>
+      </c>
+      <c r="X479" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y479">
+        <v>1.2</v>
+      </c>
+      <c r="Z479">
+        <v>4.5</v>
+      </c>
+      <c r="AA479">
+        <v>1.2</v>
+      </c>
+      <c r="AB479">
+        <v>5.07</v>
+      </c>
+      <c r="AC479">
+        <v>1.23</v>
+      </c>
+      <c r="AD479">
+        <v>5.07</v>
+      </c>
+      <c r="AE479">
+        <v>1.2</v>
+      </c>
+      <c r="AF479">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="480" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>12</v>
+      </c>
+      <c r="B480" t="s">
+        <v>227</v>
+      </c>
+      <c r="C480" t="s">
+        <v>228</v>
+      </c>
+      <c r="D480" s="1">
+        <v>44623</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H480" t="s">
+        <v>19</v>
+      </c>
+      <c r="I480">
+        <v>3</v>
+      </c>
+      <c r="J480" t="s">
+        <v>16</v>
+      </c>
+      <c r="K480" t="s">
+        <v>107</v>
+      </c>
+      <c r="L480">
+        <v>51</v>
+      </c>
+      <c r="M480">
+        <v>120</v>
+      </c>
+      <c r="N480">
+        <v>1103</v>
+      </c>
+      <c r="O480">
+        <v>552</v>
+      </c>
+      <c r="P480">
+        <v>6</v>
+      </c>
+      <c r="Q480">
+        <v>4</v>
+      </c>
+      <c r="R480">
+        <v>7</v>
+      </c>
+      <c r="S480">
+        <v>6</v>
+      </c>
+      <c r="V480">
+        <v>2</v>
+      </c>
+      <c r="W480">
+        <v>0</v>
+      </c>
+      <c r="X480" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y480">
+        <v>1.57</v>
+      </c>
+      <c r="Z480">
+        <v>2.37</v>
+      </c>
+      <c r="AA480">
+        <v>1.63</v>
+      </c>
+      <c r="AB480">
+        <v>2.4</v>
+      </c>
+      <c r="AC480">
+        <v>1.7</v>
+      </c>
+      <c r="AD480">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AE480">
+        <v>1.62</v>
+      </c>
+      <c r="AF480">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="481" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>12</v>
+      </c>
+      <c r="B481" t="s">
+        <v>227</v>
+      </c>
+      <c r="C481" t="s">
+        <v>228</v>
+      </c>
+      <c r="D481" s="1">
+        <v>44624</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H481" t="s">
+        <v>19</v>
+      </c>
+      <c r="I481">
+        <v>3</v>
+      </c>
+      <c r="J481" t="s">
+        <v>104</v>
+      </c>
+      <c r="K481" t="s">
+        <v>184</v>
+      </c>
+      <c r="L481">
+        <v>15</v>
+      </c>
+      <c r="M481">
+        <v>103</v>
+      </c>
+      <c r="N481">
+        <v>2427</v>
+      </c>
+      <c r="O481">
+        <v>624</v>
+      </c>
+      <c r="P481">
+        <v>7</v>
+      </c>
+      <c r="Q481">
+        <v>6</v>
+      </c>
+      <c r="R481">
+        <v>3</v>
+      </c>
+      <c r="S481">
+        <v>6</v>
+      </c>
+      <c r="T481">
+        <v>6</v>
+      </c>
+      <c r="U481">
+        <v>2</v>
+      </c>
+      <c r="V481">
+        <v>2</v>
+      </c>
+      <c r="W481">
+        <v>1</v>
+      </c>
+      <c r="X481" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y481">
+        <v>1.08</v>
+      </c>
+      <c r="Z481">
+        <v>8</v>
+      </c>
+      <c r="AA481">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AB481">
+        <v>7.97</v>
+      </c>
+      <c r="AC481">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AD481">
+        <v>8.5</v>
+      </c>
+      <c r="AE481">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AF481">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="482" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>12</v>
+      </c>
+      <c r="B482" t="s">
+        <v>227</v>
+      </c>
+      <c r="C482" t="s">
+        <v>228</v>
+      </c>
+      <c r="D482" s="1">
+        <v>44624</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H482" t="s">
+        <v>19</v>
+      </c>
+      <c r="I482">
+        <v>3</v>
+      </c>
+      <c r="J482" t="s">
+        <v>94</v>
+      </c>
+      <c r="K482" t="s">
+        <v>75</v>
+      </c>
+      <c r="L482">
+        <v>81</v>
+      </c>
+      <c r="M482">
+        <v>85</v>
+      </c>
+      <c r="N482">
+        <v>813</v>
+      </c>
+      <c r="O482">
+        <v>794</v>
+      </c>
+      <c r="P482">
+        <v>6</v>
+      </c>
+      <c r="Q482">
+        <v>4</v>
+      </c>
+      <c r="R482">
+        <v>6</v>
+      </c>
+      <c r="S482">
+        <v>2</v>
+      </c>
+      <c r="V482">
+        <v>2</v>
+      </c>
+      <c r="W482">
+        <v>0</v>
+      </c>
+      <c r="X482" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y482">
+        <v>1.57</v>
+      </c>
+      <c r="Z482">
+        <v>2.37</v>
+      </c>
+      <c r="AA482">
+        <v>1.7</v>
+      </c>
+      <c r="AB482">
+        <v>2.27</v>
+      </c>
+      <c r="AC482">
+        <v>1.8</v>
+      </c>
+      <c r="AD482">
+        <v>2.37</v>
+      </c>
+      <c r="AE482">
+        <v>1.63</v>
+      </c>
+      <c r="AF482">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="483" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>12</v>
+      </c>
+      <c r="B483" t="s">
+        <v>227</v>
+      </c>
+      <c r="C483" t="s">
+        <v>228</v>
+      </c>
+      <c r="D483" s="1">
+        <v>44624</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H483" t="s">
+        <v>13</v>
+      </c>
+      <c r="I483">
+        <v>3</v>
+      </c>
+      <c r="J483" t="s">
+        <v>16</v>
+      </c>
+      <c r="K483" t="s">
+        <v>23</v>
+      </c>
+      <c r="L483">
+        <v>51</v>
+      </c>
+      <c r="M483">
+        <v>36</v>
+      </c>
+      <c r="N483">
+        <v>1103</v>
+      </c>
+      <c r="O483">
+        <v>1368</v>
+      </c>
+      <c r="P483">
+        <v>6</v>
+      </c>
+      <c r="Q483">
+        <v>3</v>
+      </c>
+      <c r="R483">
+        <v>1</v>
+      </c>
+      <c r="S483">
+        <v>6</v>
+      </c>
+      <c r="T483">
+        <v>6</v>
+      </c>
+      <c r="U483">
+        <v>4</v>
+      </c>
+      <c r="V483">
+        <v>2</v>
+      </c>
+      <c r="W483">
+        <v>1</v>
+      </c>
+      <c r="X483" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y483">
+        <v>2.75</v>
+      </c>
+      <c r="Z483">
+        <v>1.44</v>
+      </c>
+      <c r="AA483">
+        <v>3.03</v>
+      </c>
+      <c r="AB483">
+        <v>1.44</v>
+      </c>
+      <c r="AC483">
+        <v>3.06</v>
+      </c>
+      <c r="AD483">
+        <v>1.53</v>
+      </c>
+      <c r="AE483">
+        <v>2.71</v>
+      </c>
+      <c r="AF483">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="484" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>12</v>
+      </c>
+      <c r="B484" t="s">
+        <v>227</v>
+      </c>
+      <c r="C484" t="s">
+        <v>228</v>
+      </c>
+      <c r="D484" s="1">
+        <v>44625</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H484" t="s">
+        <v>13</v>
+      </c>
+      <c r="I484">
+        <v>3</v>
+      </c>
+      <c r="J484" t="s">
+        <v>36</v>
+      </c>
+      <c r="K484" t="s">
+        <v>94</v>
+      </c>
+      <c r="L484">
+        <v>69</v>
+      </c>
+      <c r="M484">
+        <v>81</v>
+      </c>
+      <c r="N484">
+        <v>914</v>
+      </c>
+      <c r="O484">
+        <v>813</v>
+      </c>
+      <c r="P484">
+        <v>4</v>
+      </c>
+      <c r="Q484">
+        <v>6</v>
+      </c>
+      <c r="R484">
+        <v>6</v>
+      </c>
+      <c r="S484">
+        <v>4</v>
+      </c>
+      <c r="T484">
+        <v>7</v>
+      </c>
+      <c r="U484">
+        <v>6</v>
+      </c>
+      <c r="V484">
+        <v>2</v>
+      </c>
+      <c r="W484">
+        <v>1</v>
+      </c>
+      <c r="X484" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y484">
+        <v>2.37</v>
+      </c>
+      <c r="Z484">
+        <v>1.57</v>
+      </c>
+      <c r="AA484">
+        <v>2.46</v>
+      </c>
+      <c r="AB484">
+        <v>1.59</v>
+      </c>
+      <c r="AC484">
+        <v>2.46</v>
+      </c>
+      <c r="AD484">
+        <v>1.64</v>
+      </c>
+      <c r="AE484">
+        <v>2.36</v>
+      </c>
+      <c r="AF484">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="485" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>12</v>
+      </c>
+      <c r="B485" t="s">
+        <v>227</v>
+      </c>
+      <c r="C485" t="s">
+        <v>228</v>
+      </c>
+      <c r="D485" s="1">
+        <v>44625</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H485" t="s">
+        <v>13</v>
+      </c>
+      <c r="I485">
+        <v>3</v>
+      </c>
+      <c r="J485" t="s">
+        <v>174</v>
+      </c>
+      <c r="K485" t="s">
+        <v>104</v>
+      </c>
+      <c r="L485">
+        <v>44</v>
+      </c>
+      <c r="M485">
+        <v>15</v>
+      </c>
+      <c r="N485">
+        <v>1192</v>
+      </c>
+      <c r="O485">
+        <v>2427</v>
+      </c>
+      <c r="P485">
+        <v>1</v>
+      </c>
+      <c r="Q485">
+        <v>6</v>
+      </c>
+      <c r="R485">
+        <v>7</v>
+      </c>
+      <c r="S485">
+        <v>5</v>
+      </c>
+      <c r="T485">
+        <v>7</v>
+      </c>
+      <c r="U485">
+        <v>6</v>
+      </c>
+      <c r="V485">
+        <v>2</v>
+      </c>
+      <c r="W485">
+        <v>1</v>
+      </c>
+      <c r="X485" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y485">
+        <v>3.4</v>
+      </c>
+      <c r="Z485">
+        <v>1.33</v>
+      </c>
+      <c r="AA485">
+        <v>3.28</v>
+      </c>
+      <c r="AB485">
+        <v>1.39</v>
+      </c>
+      <c r="AC485">
+        <v>3.4</v>
+      </c>
+      <c r="AD485">
+        <v>1.42</v>
+      </c>
+      <c r="AE485">
+        <v>3.04</v>
+      </c>
+      <c r="AF485">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="486" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>12</v>
+      </c>
+      <c r="B486" t="s">
+        <v>227</v>
+      </c>
+      <c r="C486" t="s">
+        <v>228</v>
+      </c>
+      <c r="D486" s="1">
+        <v>44625</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H486" t="s">
+        <v>13</v>
+      </c>
+      <c r="I486">
+        <v>3</v>
+      </c>
+      <c r="J486" t="s">
+        <v>92</v>
+      </c>
+      <c r="K486" t="s">
+        <v>179</v>
+      </c>
+      <c r="L486">
+        <v>21</v>
+      </c>
+      <c r="M486">
+        <v>116</v>
+      </c>
+      <c r="N486">
+        <v>2066</v>
+      </c>
+      <c r="O486">
+        <v>568</v>
+      </c>
+      <c r="P486">
+        <v>7</v>
+      </c>
+      <c r="Q486">
+        <v>6</v>
+      </c>
+      <c r="R486">
+        <v>6</v>
+      </c>
+      <c r="S486">
+        <v>4</v>
+      </c>
+      <c r="V486">
+        <v>2</v>
+      </c>
+      <c r="W486">
+        <v>0</v>
+      </c>
+      <c r="X486" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y486">
+        <v>1.44</v>
+      </c>
+      <c r="Z486">
+        <v>2.75</v>
+      </c>
+      <c r="AA486">
+        <v>1.45</v>
+      </c>
+      <c r="AB486">
+        <v>2.98</v>
+      </c>
+      <c r="AC486">
+        <v>1.55</v>
+      </c>
+      <c r="AD486">
+        <v>2.98</v>
+      </c>
+      <c r="AE486">
+        <v>1.47</v>
+      </c>
+      <c r="AF486">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="487" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>12</v>
+      </c>
+      <c r="B487" t="s">
+        <v>227</v>
+      </c>
+      <c r="C487" t="s">
+        <v>228</v>
+      </c>
+      <c r="D487" s="1">
+        <v>44626</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H487" t="s">
+        <v>10</v>
+      </c>
+      <c r="I487">
+        <v>3</v>
+      </c>
+      <c r="J487" t="s">
+        <v>174</v>
+      </c>
+      <c r="K487" t="s">
+        <v>16</v>
+      </c>
+      <c r="L487">
+        <v>44</v>
+      </c>
+      <c r="M487">
+        <v>51</v>
+      </c>
+      <c r="N487">
+        <v>1192</v>
+      </c>
+      <c r="O487">
+        <v>1103</v>
+      </c>
+      <c r="P487">
+        <v>6</v>
+      </c>
+      <c r="Q487">
+        <v>4</v>
+      </c>
+      <c r="R487">
+        <v>6</v>
+      </c>
+      <c r="S487">
+        <v>4</v>
+      </c>
+      <c r="V487">
+        <v>2</v>
+      </c>
+      <c r="W487">
+        <v>0</v>
+      </c>
+      <c r="X487" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y487">
+        <v>1.72</v>
+      </c>
+      <c r="Z487">
+        <v>2.1</v>
+      </c>
+      <c r="AA487">
+        <v>1.79</v>
+      </c>
+      <c r="AB487">
+        <v>2.14</v>
+      </c>
+      <c r="AC487">
+        <v>1.8</v>
+      </c>
+      <c r="AD487">
+        <v>2.21</v>
+      </c>
+      <c r="AE487">
+        <v>1.74</v>
+      </c>
+      <c r="AF487">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="488" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>12</v>
+      </c>
+      <c r="B488" t="s">
+        <v>227</v>
+      </c>
+      <c r="C488" t="s">
+        <v>228</v>
+      </c>
+      <c r="D488" s="1">
+        <v>44626</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H488" t="s">
+        <v>10</v>
+      </c>
+      <c r="I488">
+        <v>3</v>
+      </c>
+      <c r="J488" t="s">
+        <v>92</v>
+      </c>
+      <c r="K488" t="s">
+        <v>36</v>
+      </c>
+      <c r="L488">
+        <v>21</v>
+      </c>
+      <c r="M488">
+        <v>69</v>
+      </c>
+      <c r="N488">
+        <v>2066</v>
+      </c>
+      <c r="O488">
+        <v>914</v>
+      </c>
+      <c r="P488">
+        <v>6</v>
+      </c>
+      <c r="Q488">
+        <v>1</v>
+      </c>
+      <c r="R488">
+        <v>6</v>
+      </c>
+      <c r="S488">
+        <v>4</v>
+      </c>
+      <c r="V488">
+        <v>2</v>
+      </c>
+      <c r="W488">
+        <v>0</v>
+      </c>
+      <c r="X488" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y488">
+        <v>1.36</v>
+      </c>
+      <c r="Z488">
+        <v>3.2</v>
+      </c>
+      <c r="AA488">
+        <v>1.38</v>
+      </c>
+      <c r="AB488">
+        <v>3.36</v>
+      </c>
+      <c r="AC488">
+        <v>1.43</v>
+      </c>
+      <c r="AD488">
+        <v>3.65</v>
+      </c>
+      <c r="AE488">
+        <v>1.38</v>
+      </c>
+      <c r="AF488">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="489" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>12</v>
+      </c>
+      <c r="B489" t="s">
+        <v>227</v>
+      </c>
+      <c r="C489" t="s">
+        <v>228</v>
+      </c>
+      <c r="D489" s="1">
+        <v>44626</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H489" t="s">
+        <v>3</v>
+      </c>
+      <c r="I489">
+        <v>3</v>
+      </c>
+      <c r="J489" t="s">
+        <v>92</v>
+      </c>
+      <c r="K489" t="s">
+        <v>174</v>
+      </c>
+      <c r="L489">
+        <v>21</v>
+      </c>
+      <c r="M489">
+        <v>44</v>
+      </c>
+      <c r="N489">
+        <v>2066</v>
+      </c>
+      <c r="O489">
+        <v>1192</v>
+      </c>
+      <c r="P489">
+        <v>6</v>
+      </c>
+      <c r="Q489">
+        <v>7</v>
+      </c>
+      <c r="R489">
+        <v>6</v>
+      </c>
+      <c r="S489">
+        <v>4</v>
+      </c>
+      <c r="T489">
+        <v>7</v>
+      </c>
+      <c r="U489">
+        <v>6</v>
+      </c>
+      <c r="V489">
+        <v>2</v>
+      </c>
+      <c r="W489">
+        <v>1</v>
+      </c>
+      <c r="X489" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y489">
+        <v>1.3</v>
+      </c>
+      <c r="Z489">
+        <v>3.5</v>
+      </c>
+      <c r="AA489">
+        <v>1.36</v>
+      </c>
+      <c r="AB489">
+        <v>3.44</v>
+      </c>
+      <c r="AC489">
+        <v>1.39</v>
+      </c>
+      <c r="AD489">
+        <v>3.5</v>
+      </c>
+      <c r="AE489">
+        <v>1.34</v>
+      </c>
+      <c r="AF489">
+        <v>3.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
